--- a/TasksBugsList.xlsx
+++ b/TasksBugsList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoang\2022_2023_02\CNPM\BTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\demWcontest\Wcontest-Team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD4C73D-6534-41AE-9881-9C099C172C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894AB39D-5806-4A6D-A550-3BB145881642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D43132C-1E09-488E-BB0E-21797307D290}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>Đặc tả USE CASE</t>
+  </si>
+  <si>
+    <t>X.dat</t>
+  </si>
+  <si>
+    <t>M.Hieu</t>
+  </si>
+  <si>
+    <t>Khoi</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Hoang</t>
   </si>
 </sst>
 </file>
@@ -553,7 +568,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,13 +778,15 @@
       <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -791,7 +808,9 @@
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="5" t="s">
         <v>32</v>
@@ -819,7 +838,9 @@
       <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>34</v>
@@ -847,7 +868,9 @@
       <c r="G10" s="3">
         <v>44960</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
@@ -873,7 +896,9 @@
       <c r="G11" s="3">
         <v>45049</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>

--- a/TasksBugsList.xlsx
+++ b/TasksBugsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\demWcontest\Wcontest-Team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894AB39D-5806-4A6D-A550-3BB145881642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB84E67-A894-4EDA-91EB-55D03EA3752B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D43132C-1E09-488E-BB0E-21797307D290}"/>
   </bookViews>
@@ -27,8 +27,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>VTS</author>
+  </authors>
+  <commentList>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{C248E631-9220-428D-8989-FEE7770C014C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>VTS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hệ thống thanh toán, cơ sở dữ liệu</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -157,14 +191,50 @@
     <t>MD</t>
   </si>
   <si>
-    <t>Hoang</t>
+    <t>BE, FE</t>
+  </si>
+  <si>
+    <t>Sửa đổi thông tin cá nhân, cho phép
+ người dùng đăng ký tài khoản, lấy lại mật khẩu</t>
+  </si>
+  <si>
+    <t>Sử dụng phần mềm Xara Web Designer,
+  tham khảo leetcode,
+ các trang web trên mạng</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>Thiết kế (vẽ ra) giao diện cho các phần của trang web</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Hoang + Khoi</t>
+  </si>
+  <si>
+    <t>Tiếp tục cải thiện, hoàn thiện thì làm task 12</t>
+  </si>
+  <si>
+    <t>Trang web khá giống leetcode,
+ bonus thêm phần đấu trường nếu có thể</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Pending,
+ Khôi làm phần đăng nhập, 
+Hoàng làm phần đăng ký</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +255,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA22EBC-2CCB-443B-A21A-14982F63BB5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA22EBC-2CCB-443B-A21A-14982F63BB5A}">
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,9 +671,10 @@
     <col min="4" max="4" width="50.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="8" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="43.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -781,12 +874,14 @@
       <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -811,7 +906,9 @@
       <c r="H8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>32</v>
       </c>
@@ -841,12 +938,14 @@
       <c r="H9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -871,10 +970,14 @@
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -897,16 +1000,26 @@
         <v>45049</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
@@ -914,17 +1027,35 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+    <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45049</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -1225,5 +1356,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TasksBugsList.xlsx
+++ b/TasksBugsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\demWcontest\Wcontest-Team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB84E67-A894-4EDA-91EB-55D03EA3752B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767B0BEA-F099-4472-A2AF-B8BD676FAEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D43132C-1E09-488E-BB0E-21797307D290}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -198,36 +198,35 @@
  người dùng đăng ký tài khoản, lấy lại mật khẩu</t>
   </si>
   <si>
-    <t>Sử dụng phần mềm Xara Web Designer,
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>Thiết kế (vẽ ra) giao diện cho các phần của trang web</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Hoang + Khoi</t>
+  </si>
+  <si>
+    <t>Trang web khá giống leetcode,
+ bonus thêm phần đấu trường nếu có thể</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Sử dụng figma, 
   tham khảo leetcode,
  các trang web trên mạng</t>
   </si>
   <si>
-    <t>24/02/2023</t>
-  </si>
-  <si>
-    <t>Thiết kế (vẽ ra) giao diện cho các phần của trang web</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Hoang + Khoi</t>
-  </si>
-  <si>
-    <t>Tiếp tục cải thiện, hoàn thiện thì làm task 12</t>
-  </si>
-  <si>
-    <t>Trang web khá giống leetcode,
- bonus thêm phần đấu trường nếu có thể</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Pending,
- Khôi làm phần đăng nhập, 
-Hoàng làm phần đăng ký</t>
+    <t>Thiết kế database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending,
+ </t>
   </si>
 </sst>
 </file>
@@ -660,7 +659,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,8 +873,8 @@
       <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>48</v>
+      <c r="I7" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>30</v>
@@ -907,7 +906,7 @@
         <v>38</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>32</v>
@@ -939,7 +938,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
@@ -971,13 +970,13 @@
         <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>45049</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>51</v>
@@ -1038,13 +1037,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3">
         <v>45049</v>
@@ -1052,26 +1051,44 @@
       <c r="H13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J13" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45080</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
